--- a/crosswalks/MarineCoastal-IUCNGET/MarineCoastal-IUCNGET.xlsx
+++ b/crosswalks/MarineCoastal-IUCNGET/MarineCoastal-IUCNGET.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Documents\NEAP\Ecosystem-Typology\crosswalks\MarineCoastal-IUCNGET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\ecosystem-typology\crosswalks\MarineCoastal-IUCNGET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A4EBF2-A4D5-49D9-B5EC-D51AAD001A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C3BC25-0D9F-42DC-8C44-309A9883B608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{D01AE75A-5DB4-4EB9-9B33-8751D4445479}"/>
+    <workbookView xWindow="6240" yWindow="7065" windowWidth="29595" windowHeight="16200" activeTab="2" xr2:uid="{D01AE75A-5DB4-4EB9-9B33-8751D4445479}"/>
   </bookViews>
   <sheets>
     <sheet name="IUCN GET L3" sheetId="2" r:id="rId1"/>
@@ -18,10 +18,21 @@
     <sheet name="Crosswalk_V2" sheetId="3" r:id="rId3"/>
     <sheet name="SSSOM" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -35,19 +46,28 @@
   <commentList>
     <comment ref="A30" authorId="0" shapeId="0" xr:uid="{448C10AB-2548-445D-8D1C-94025C8E7CB6}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Should this be Marine?</t>
-        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={61E97ACF-2248-410F-BA66-E912F5FD73E7}</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{61E97ACF-2248-410F-BA66-E912F5FD73E7}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Is this actually the mapping author? </t>
       </text>
     </comment>
   </commentList>
@@ -55,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="348">
   <si>
     <t>Realm</t>
   </si>
@@ -1128,10 +1148,16 @@
     <t>https://orcid.org/0000-0003-4254-8683</t>
   </si>
   <si>
-    <t>Reviewer1_notes</t>
-  </si>
-  <si>
     <t>Piers Dunstan</t>
+  </si>
+  <si>
+    <t>reviewer_id</t>
+  </si>
+  <si>
+    <t>orcid:0000-0002-2568-5945</t>
+  </si>
+  <si>
+    <t>reviewer_label</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1167,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1228,6 +1254,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1360,14 +1392,15 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Simon Cox" id="{79658783-6508-45FB-8D3F-D9B797DAE8A5}" userId="fcabc4d7e599448e" providerId="Windows Live"/>
   <person displayName="Macfarlane, Craig (Environment, Floreat)" id="{56E0A7AD-2F67-4F51-9367-6370C1F6A9AE}" userId="S::mac508@csiro.au::44651e22-f133-4a68-8459-bbcd09b63482" providerId="AD"/>
 </personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1405,7 +1438,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1511,7 +1544,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1653,7 +1686,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1669,8 +1702,8 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C1" dT="2023-12-13T01:54:45.53" personId="{56E0A7AD-2F67-4F51-9367-6370C1F6A9AE}" id="{8380B0E1-4B86-47DC-B961-EFC84422D541}">
-    <text>I'm not sure what these numbers mean.  The classes in Appendix A of the Dunstan et al. 2022 go up to 18.</text>
+  <threadedComment ref="G1" dT="2024-01-16T02:50:12.04" personId="{79658783-6508-45FB-8D3F-D9B797DAE8A5}" id="{61E97ACF-2248-410F-BA66-E912F5FD73E7}">
+    <text xml:space="preserve">Is this actually the mapping author? </text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -1683,16 +1716,16 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="43.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="81.7265625" customWidth="1"/>
-    <col min="9" max="9" width="17.81640625" customWidth="1"/>
-    <col min="10" max="10" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="81.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>86</v>
       </c>
@@ -1724,7 +1757,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>95</v>
       </c>
@@ -1753,7 +1786,7 @@
         <v>43850.5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>95</v>
       </c>
@@ -1782,7 +1815,7 @@
         <v>43850.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>95</v>
       </c>
@@ -1811,7 +1844,7 @@
         <v>43850.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>95</v>
       </c>
@@ -1840,7 +1873,7 @@
         <v>43850.5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>95</v>
       </c>
@@ -1870,7 +1903,7 @@
       </c>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>95</v>
       </c>
@@ -1900,7 +1933,7 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>95</v>
       </c>
@@ -1930,7 +1963,7 @@
       </c>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>95</v>
       </c>
@@ -1959,7 +1992,7 @@
         <v>43980.494606481479</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>95</v>
       </c>
@@ -1988,7 +2021,7 @@
         <v>43850.5</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>95</v>
       </c>
@@ -2017,7 +2050,7 @@
         <v>44741.270972222221</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>153</v>
       </c>
@@ -2046,7 +2079,7 @@
         <v>43850.5</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>153</v>
       </c>
@@ -2075,7 +2108,7 @@
         <v>43850.5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>153</v>
       </c>
@@ -2104,7 +2137,7 @@
         <v>43850.5</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>153</v>
       </c>
@@ -2133,7 +2166,7 @@
         <v>44383.104687500003</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>153</v>
       </c>
@@ -2165,7 +2198,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>184</v>
       </c>
@@ -2194,7 +2227,7 @@
         <v>43850.5</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>184</v>
       </c>
@@ -2223,7 +2256,7 @@
         <v>43980.49559027778</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>184</v>
       </c>
@@ -2252,7 +2285,7 @@
         <v>43850.5</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>184</v>
       </c>
@@ -2281,7 +2314,7 @@
         <v>43850.5</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>184</v>
       </c>
@@ -2316,7 +2349,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>184</v>
       </c>
@@ -2348,7 +2381,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>184</v>
       </c>
@@ -2380,7 +2413,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>228</v>
       </c>
@@ -2415,7 +2448,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>228</v>
       </c>
@@ -2447,7 +2480,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>242</v>
       </c>
@@ -2479,7 +2512,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>242</v>
       </c>
@@ -2508,7 +2541,7 @@
         <v>43850.5</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>242</v>
       </c>
@@ -2537,7 +2570,7 @@
         <v>44041.421215277784</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>262</v>
       </c>
@@ -2569,7 +2602,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>262</v>
       </c>
@@ -2601,7 +2634,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>262</v>
       </c>
@@ -2633,7 +2666,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>262</v>
       </c>
@@ -2665,7 +2698,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>291</v>
       </c>
@@ -2697,7 +2730,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>291</v>
       </c>
@@ -2729,7 +2762,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>305</v>
       </c>
@@ -2775,17 +2808,17 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="121.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.26953125" customWidth="1"/>
-    <col min="7" max="7" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="121.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.28515625" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2811,7 +2844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2837,7 +2870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2863,7 +2896,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -2889,7 +2922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2916,7 +2949,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -2943,7 +2976,7 @@
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -2969,7 +3002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -2995,7 +3028,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -3021,7 +3054,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -3047,7 +3080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -3073,7 +3106,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -3099,7 +3132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -3125,7 +3158,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -3151,7 +3184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -3177,7 +3210,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -3203,7 +3236,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -3229,7 +3262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -3255,7 +3288,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -3281,7 +3314,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -3307,7 +3340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -3333,7 +3366,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -3359,7 +3392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -3385,7 +3418,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -3411,7 +3444,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -3437,7 +3470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
@@ -3463,7 +3496,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>73</v>
       </c>
@@ -3480,7 +3513,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>73</v>
       </c>
@@ -3497,7 +3530,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>73</v>
       </c>
@@ -3514,7 +3547,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>73</v>
       </c>
@@ -3539,43 +3572,51 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869F0E0B-08B8-4651-AFE7-4266EA9CC8AA}">
-  <dimension ref="A1:G38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869F0E0B-08B8-4651-AFE7-4266EA9CC8AA}">
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" customWidth="1"/>
-    <col min="2" max="2" width="29.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.1796875" customWidth="1"/>
-    <col min="4" max="4" width="34.26953125" customWidth="1"/>
-    <col min="5" max="5" width="40.26953125" customWidth="1"/>
-    <col min="6" max="6" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" customWidth="1"/>
+    <col min="5" max="6" width="40.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>330</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D1" t="s">
+        <v>321</v>
+      </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>322</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>347</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>337</v>
       </c>
@@ -3587,10 +3628,13 @@
         <v>112</v>
       </c>
       <c r="F2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+      <c r="G2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>337</v>
       </c>
@@ -3602,10 +3646,13 @@
         <v>131</v>
       </c>
       <c r="F3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+      <c r="G3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>337</v>
       </c>
@@ -3617,10 +3664,13 @@
         <v>136</v>
       </c>
       <c r="F4" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+      <c r="G4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>337</v>
       </c>
@@ -3632,13 +3682,16 @@
         <v>147</v>
       </c>
       <c r="F5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G5" t="s">
+        <v>344</v>
+      </c>
+      <c r="H5" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>337</v>
       </c>
@@ -3650,10 +3703,13 @@
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+      <c r="G6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>337</v>
       </c>
@@ -3665,10 +3721,13 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+      <c r="G7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>337</v>
       </c>
@@ -3680,10 +3739,13 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+      <c r="G8" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>337</v>
       </c>
@@ -3695,10 +3757,13 @@
         <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+      <c r="G9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>337</v>
       </c>
@@ -3710,10 +3775,13 @@
         <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+      <c r="G10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>337</v>
       </c>
@@ -3725,10 +3793,13 @@
         <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+      <c r="G11" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>337</v>
       </c>
@@ -3740,10 +3811,13 @@
         <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+      <c r="G12" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>337</v>
       </c>
@@ -3755,10 +3829,13 @@
         <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+      <c r="G13" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>337</v>
       </c>
@@ -3770,10 +3847,13 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+      <c r="G14" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>337</v>
       </c>
@@ -3785,10 +3865,13 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+      <c r="G15" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>337</v>
       </c>
@@ -3800,10 +3883,13 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+      <c r="G16" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>337</v>
       </c>
@@ -3815,10 +3901,13 @@
         <v>124</v>
       </c>
       <c r="F17" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+      <c r="G17" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>337</v>
       </c>
@@ -3830,13 +3919,16 @@
         <v>112</v>
       </c>
       <c r="F18" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G18" t="s">
+        <v>344</v>
+      </c>
+      <c r="H18" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>337</v>
       </c>
@@ -3848,10 +3940,13 @@
         <v>85</v>
       </c>
       <c r="F19" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+      <c r="G19" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>337</v>
       </c>
@@ -3863,10 +3958,13 @@
         <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+      <c r="G20" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>337</v>
       </c>
@@ -3878,10 +3976,13 @@
         <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+      <c r="G21" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>337</v>
       </c>
@@ -3893,10 +3994,13 @@
         <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+      <c r="G22" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>337</v>
       </c>
@@ -3908,10 +4012,13 @@
         <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+      <c r="G23" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>337</v>
       </c>
@@ -3923,10 +4030,13 @@
         <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+      <c r="G24" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>337</v>
       </c>
@@ -3938,10 +4048,13 @@
         <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+      <c r="G25" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>337</v>
       </c>
@@ -3953,10 +4066,13 @@
         <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+      <c r="G26" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>338</v>
       </c>
@@ -3968,10 +4084,13 @@
         <v>63</v>
       </c>
       <c r="F27" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+      <c r="G27" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>338</v>
       </c>
@@ -3982,10 +4101,13 @@
         <v>63</v>
       </c>
       <c r="F28" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+      <c r="G28" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>338</v>
       </c>
@@ -3996,10 +4118,13 @@
         <v>69</v>
       </c>
       <c r="F29" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+      <c r="G29" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>338</v>
       </c>
@@ -4010,10 +4135,13 @@
         <v>167</v>
       </c>
       <c r="F30" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+      <c r="G30" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>338</v>
       </c>
@@ -4024,13 +4152,16 @@
         <v>173</v>
       </c>
       <c r="F31" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G31" t="s">
+        <v>344</v>
+      </c>
+      <c r="H31" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>331</v>
       </c>
@@ -4041,10 +4172,13 @@
         <v>76</v>
       </c>
       <c r="F32" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+      <c r="G32" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>331</v>
       </c>
@@ -4055,10 +4189,13 @@
         <v>36</v>
       </c>
       <c r="F33" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+      <c r="G33" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>331</v>
       </c>
@@ -4069,10 +4206,13 @@
         <v>82</v>
       </c>
       <c r="F34" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+      <c r="G34" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>331</v>
       </c>
@@ -4083,22 +4223,27 @@
         <v>85</v>
       </c>
       <c r="F35" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+      <c r="G35" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E38" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F38" t="s">
-        <v>345</v>
-      </c>
+      <c r="F38" s="5"/>
       <c r="G38" t="s">
+        <v>344</v>
+      </c>
+      <c r="H38" t="s">
         <v>317</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4110,25 +4255,25 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="34" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>318</v>
       </c>
@@ -4172,7 +4317,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE(Crosswalk_V2!A2,":",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B2," - ","")," ","-"),"/","-or-"))</f>
         <v>benthic:Shelf-unvegetated-sediments</v>
@@ -4211,7 +4356,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE(Crosswalk_V2!A3,":",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B3," - ","")," ","-"),"/","-or-"))</f>
         <v>benthic:Shelf-unvegetated-sediments</v>
@@ -4250,7 +4395,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE(Crosswalk_V2!A4,":",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B4," - ","")," ","-"),"/","-or-"))</f>
         <v>benthic:Shelf-unvegetated-sediments</v>
@@ -4289,7 +4434,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>CONCATENATE(Crosswalk_V2!A5,":",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B5," - ","")," ","-"),"/","-or-"))</f>
         <v>benthic:Shelf-unvegetated-sediments</v>
@@ -4328,7 +4473,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>CONCATENATE(Crosswalk_V2!A6,":",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B6," - ","")," ","-"),"/","-or-"))</f>
         <v>benthic:Upper-slope-sediments</v>
@@ -4364,7 +4509,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>CONCATENATE(Crosswalk_V2!A7,":",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B7," - ","")," ","-"),"/","-or-"))</f>
         <v>benthic:Mid-slope-sediments</v>
@@ -4400,7 +4545,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>CONCATENATE(Crosswalk_V2!A8,":",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B8," - ","")," ","-"),"/","-or-"))</f>
         <v>benthic:Lower-slope-reef-&amp;-sediments</v>
@@ -4436,7 +4581,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>CONCATENATE(Crosswalk_V2!A9,":",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B9," - ","")," ","-"),"/","-or-"))</f>
         <v>benthic:Abyss-reefs-&amp;-sediments</v>
@@ -4472,7 +4617,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>CONCATENATE(Crosswalk_V2!A10,":",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B10," - ","")," ","-"),"/","-or-"))</f>
         <v>benthic:Seamount-sediments</v>
@@ -4508,7 +4653,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>CONCATENATE(Crosswalk_V2!A11,":",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B11," - ","")," ","-"),"/","-or-"))</f>
         <v>benthic:Seamount-reefs</v>
@@ -4544,7 +4689,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>CONCATENATE(Crosswalk_V2!A12,":",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B12," - ","")," ","-"),"/","-or-"))</f>
         <v>benthic:Shelf-incising-canyons</v>
@@ -4580,7 +4725,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>CONCATENATE(Crosswalk_V2!A13,":",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B13," - ","")," ","-"),"/","-or-"))</f>
         <v>benthic:Shelf-vegetated-sediments</v>
@@ -4616,7 +4761,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>CONCATENATE(Crosswalk_V2!A14,":",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B14," - ","")," ","-"),"/","-or-"))</f>
         <v>benthic:Oceanic-coral-reefs</v>
@@ -4652,7 +4797,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>CONCATENATE(Crosswalk_V2!A15,":",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B15," - ","")," ","-"),"/","-or-"))</f>
         <v>benthic:Oceanic-corals-reefs</v>
@@ -4688,7 +4833,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>CONCATENATE(Crosswalk_V2!A16,":",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B16," - ","")," ","-"),"/","-or-"))</f>
         <v>benthic:Oceanic-shallow-coral-reefs</v>
@@ -4724,7 +4869,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>CONCATENATE(Crosswalk_V2!A17,":",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B17," - ","")," ","-"),"/","-or-"))</f>
         <v>benthic:Shallow-rocky-reefs</v>
@@ -4760,7 +4905,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>CONCATENATE(Crosswalk_V2!A18,":",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B18," - ","")," ","-"),"/","-or-"))</f>
         <v>benthic:Shallow-rocky-reefs</v>
@@ -4796,7 +4941,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>CONCATENATE(Crosswalk_V2!A19,":",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B19," - ","")," ","-"),"/","-or-"))</f>
         <v>benthic:Shallow-rocky-reefs</v>
@@ -4832,7 +4977,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>CONCATENATE(Crosswalk_V2!A20,":",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B20," - ","")," ","-"),"/","-or-"))</f>
         <v>benthic:Mesophotic-coral-reefs</v>
@@ -4868,7 +5013,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>CONCATENATE(Crosswalk_V2!A21,":",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B21," - ","")," ","-"),"/","-or-"))</f>
         <v>benthic:Mesophotic-rocky-reefs</v>
@@ -4904,7 +5049,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>CONCATENATE(Crosswalk_V2!A22,":",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B22," - ","")," ","-"),"/","-or-"))</f>
         <v>benthic:Oceanic-mesophotic-coral-reefs</v>
@@ -4940,7 +5085,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>CONCATENATE(Crosswalk_V2!A23,":",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B23," - ","")," ","-"),"/","-or-"))</f>
         <v>benthic:Rariphotic-shelf-reefs</v>
@@ -4976,7 +5121,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>CONCATENATE(Crosswalk_V2!A24,":",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B24," - ","")," ","-"),"/","-or-"))</f>
         <v>benthic:Upper-slope-reefs</v>
@@ -5012,7 +5157,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>CONCATENATE(Crosswalk_V2!A25,":",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B25," - ","")," ","-"),"/","-or-"))</f>
         <v>benthic:Upper-slope-reefs</v>
@@ -5048,7 +5193,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>CONCATENATE(Crosswalk_V2!A26,":",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B26," - ","")," ","-"),"/","-or-"))</f>
         <v>benthic:Mid-slope-reefs</v>
@@ -5084,7 +5229,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>CONCATENATE(Crosswalk_V2!A27,":",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B27," - ","")," ","-"),"/","-or-"))</f>
         <v>pelagic:On-shelf-(neritic)-epipelagic</v>
@@ -5120,7 +5265,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>CONCATENATE(Crosswalk_V2!A28,":",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B28," - ","")," ","-"),"/","-or-"))</f>
         <v>pelagic:Off-shelf-(oceanic)-epipelagic</v>
@@ -5156,7 +5301,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>CONCATENATE(Crosswalk_V2!A29,":",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B29," - ","")," ","-"),"/","-or-"))</f>
         <v>pelagic:Mesopelagic</v>
@@ -5192,7 +5337,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f>CONCATENATE(Crosswalk_V2!A30,":",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B30," - ","")," ","-"),"/","-or-"))</f>
         <v>pelagic:Bathypelagic-&amp;-Abyssopelagic</v>
@@ -5231,7 +5376,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f>CONCATENATE(Crosswalk_V2!A31,":",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B31," - ","")," ","-"),"/","-or-"))</f>
         <v>pelagic:Bathypelagic-&amp;-Abyssopelagic</v>
@@ -5270,7 +5415,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f>CONCATENATE(Crosswalk_V2!A32,":",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B32," - ","")," ","-"),"/","-or-"))</f>
         <v>coastal:Saltmarsh</v>
@@ -5306,7 +5451,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f>CONCATENATE(Crosswalk_V2!A33,":",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B33," - ","")," ","-"),"/","-or-"))</f>
         <v>coastal:Intertidal-seagrass</v>
@@ -5342,7 +5487,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f>CONCATENATE(Crosswalk_V2!A34,":",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B34," - ","")," ","-"),"/","-or-"))</f>
         <v>coastal:Mangroves</v>
@@ -5378,7 +5523,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f>CONCATENATE(Crosswalk_V2!A35,":",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B35," - ","")," ","-"),"/","-or-"))</f>
         <v>coastal:Kelp</v>
@@ -5425,32 +5570,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9e444dda-df07-4069-8b25-4dfb1c3da75a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="72d9be16-af35-44ba-8991-a3db737bf75a" xsi:nil="true"/>
-    <Notes0 xmlns="9e444dda-df07-4069-8b25-4dfb1c3da75a" xsi:nil="true"/>
-    <_dlc_DocId xmlns="72d9be16-af35-44ba-8991-a3db737bf75a">63P7TJYCZHM3-28990658-16955</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="72d9be16-af35-44ba-8991-a3db737bf75a">
-      <Url>https://csiroau.sharepoint.com/sites/CSIRO-LEAP/_layouts/15/DocIdRedir.aspx?ID=63P7TJYCZHM3-28990658-16955</Url>
-      <Description>63P7TJYCZHM3-28990658-16955</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100772FA3DF59B7CE49A6C16870444FDBEA" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1badbe4fae1da33fa4f3d33d98841982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9e444dda-df07-4069-8b25-4dfb1c3da75a" xmlns:ns3="72d9be16-af35-44ba-8991-a3db737bf75a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="35b20e6642ad5eb13a26fdf3049cd990" ns2:_="" ns3:_="">
     <xsd:import namespace="9e444dda-df07-4069-8b25-4dfb1c3da75a"/>
@@ -5726,6 +5845,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9e444dda-df07-4069-8b25-4dfb1c3da75a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="72d9be16-af35-44ba-8991-a3db737bf75a" xsi:nil="true"/>
+    <Notes0 xmlns="9e444dda-df07-4069-8b25-4dfb1c3da75a" xsi:nil="true"/>
+    <_dlc_DocId xmlns="72d9be16-af35-44ba-8991-a3db737bf75a">63P7TJYCZHM3-28990658-16955</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="72d9be16-af35-44ba-8991-a3db737bf75a">
+      <Url>https://csiroau.sharepoint.com/sites/CSIRO-LEAP/_layouts/15/DocIdRedir.aspx?ID=63P7TJYCZHM3-28990658-16955</Url>
+      <Description>63P7TJYCZHM3-28990658-16955</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
@@ -5777,25 +5922,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC5D47B6-1317-4F93-BD6E-FCBD1047334E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D487604F-0564-4158-A24A-3D7190C5619F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9e444dda-df07-4069-8b25-4dfb1c3da75a"/>
-    <ds:schemaRef ds:uri="72d9be16-af35-44ba-8991-a3db737bf75a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66326C79-A0D3-4EA9-86BB-19E204621547}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5814,6 +5940,25 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D487604F-0564-4158-A24A-3D7190C5619F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9e444dda-df07-4069-8b25-4dfb1c3da75a"/>
+    <ds:schemaRef ds:uri="72d9be16-af35-44ba-8991-a3db737bf75a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC5D47B6-1317-4F93-BD6E-FCBD1047334E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39241E02-8637-4EBB-8C9C-3CF779AD8349}">
   <ds:schemaRefs>

--- a/crosswalks/MarineCoastal-IUCNGET/MarineCoastal-IUCNGET.xlsx
+++ b/crosswalks/MarineCoastal-IUCNGET/MarineCoastal-IUCNGET.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Documents\NEAP\Ecosystem-Typology\crosswalks\MarineCoastal-IUCNGET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCFAB83-0C36-4DD7-8E64-6B83B8783BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97C3E19-FB9E-4B4E-9A46-336E83AB1886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{D01AE75A-5DB4-4EB9-9B33-8751D4445479}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="161">
   <si>
     <t>Realm</t>
   </si>
@@ -176,9 +176,6 @@
   </si>
   <si>
     <t>WCMC Reefs = TRUE AND IS NOT Continental Shelf</t>
-  </si>
-  <si>
-    <t>Oceanic corals reefs</t>
   </si>
   <si>
     <t>National Reefs = TRUE AND GA Bathy &gt;= -30m AND IS Coral (Latitude &gt;= -32. 69) AND IS NOT Continental Shelf</t>
@@ -520,9 +517,6 @@
   </si>
   <si>
     <t>nesp:Oceanic-coral-reefs</t>
-  </si>
-  <si>
-    <t>nesp:Oceanic-corals-reefs</t>
   </si>
   <si>
     <t>nesp:Oceanic-shallow-coral-reefs</t>
@@ -1331,7 +1325,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
@@ -1351,13 +1345,13 @@
         <v>37</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13">
         <v>8</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G13" t="s">
         <v>12</v>
@@ -1374,16 +1368,16 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="E14">
         <v>10</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s">
         <v>12</v>
@@ -1400,16 +1394,16 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
         <v>44</v>
-      </c>
-      <c r="D15" t="s">
-        <v>45</v>
       </c>
       <c r="E15">
         <v>11</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
@@ -1426,16 +1420,16 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="E16">
         <v>12</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G16" t="s">
         <v>12</v>
@@ -1452,16 +1446,16 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="E17">
         <v>13</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G17" t="s">
         <v>12</v>
@@ -1478,16 +1472,16 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="E18">
         <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G18" t="s">
         <v>12</v>
@@ -1504,16 +1498,16 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="E19">
         <v>15</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G19" t="s">
         <v>12</v>
@@ -1530,10 +1524,10 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="E20">
         <v>16</v>
@@ -1556,10 +1550,10 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E21">
         <v>16</v>
@@ -1582,10 +1576,10 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="E22">
         <v>17</v>
@@ -1608,19 +1602,19 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="E23">
         <v>23</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" t="s">
         <v>62</v>
-      </c>
-      <c r="G23" t="s">
-        <v>63</v>
       </c>
       <c r="H23" t="s">
         <v>13</v>
@@ -1634,19 +1628,19 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="E24">
         <v>22</v>
       </c>
       <c r="F24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" t="s">
         <v>62</v>
-      </c>
-      <c r="G24" t="s">
-        <v>63</v>
       </c>
       <c r="H24" t="s">
         <v>13</v>
@@ -1660,19 +1654,19 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" t="s">
         <v>66</v>
-      </c>
-      <c r="D25" t="s">
-        <v>67</v>
       </c>
       <c r="E25">
         <v>21</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H25" t="s">
         <v>13</v>
@@ -1686,19 +1680,19 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
         <v>69</v>
-      </c>
-      <c r="D26" t="s">
-        <v>70</v>
       </c>
       <c r="E26">
         <v>20</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H26" t="s">
         <v>13</v>
@@ -1712,10 +1706,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869F0E0B-08B8-4651-AFE7-4266EA9CC8AA}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD35"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1731,108 +1725,108 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" t="s">
         <v>87</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>88</v>
       </c>
-      <c r="E1" t="s">
-        <v>89</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -1842,15 +1836,15 @@
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -1860,15 +1854,15 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -1878,15 +1872,15 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
@@ -1896,15 +1890,15 @@
         <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -1914,15 +1908,15 @@
         <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
@@ -1932,15 +1926,15 @@
         <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -1950,15 +1944,15 @@
         <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
@@ -1968,229 +1962,229 @@
         <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
-        <v>43</v>
+      <c r="E16" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="F16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="4" t="s">
-        <v>74</v>
+      <c r="E17" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="F17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G17" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="H17" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="10" t="s">
-        <v>73</v>
+      <c r="E18" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="F18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G18" t="s">
-        <v>102</v>
-      </c>
-      <c r="H18" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2198,118 +2192,100 @@
         <v>100</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="D26" s="4"/>
       <c r="E26" s="2" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="F26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" t="s">
+        <v>103</v>
+      </c>
+      <c r="G27" t="s">
         <v>101</v>
-      </c>
-      <c r="B27" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" t="s">
-        <v>104</v>
-      </c>
-      <c r="G27" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" t="s">
         <v>101</v>
-      </c>
-      <c r="B28" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G28" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" t="s">
         <v>101</v>
-      </c>
-      <c r="B29" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F29" t="s">
-        <v>104</v>
-      </c>
-      <c r="G29" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" t="s">
+        <v>103</v>
+      </c>
+      <c r="G30" t="s">
         <v>101</v>
       </c>
-      <c r="B30" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F30" t="s">
-        <v>104</v>
-      </c>
-      <c r="G30" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="H30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" t="s">
         <v>101</v>
       </c>
-      <c r="B31" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F31" t="s">
-        <v>104</v>
-      </c>
-      <c r="G31" t="s">
-        <v>102</v>
-      </c>
-      <c r="H31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E34" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" s="3"/>
-      <c r="G34" t="s">
-        <v>102</v>
-      </c>
-      <c r="H34" t="s">
-        <v>84</v>
+      <c r="H33" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2333,52 +2309,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2388,10 +2364,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACFEC63-F603-4D93-B073-540A32B07BA6}">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2415,1206 +2391,1206 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="O1" s="8"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G2" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" t="s">
         <v>106</v>
-      </c>
-      <c r="H2" t="s">
-        <v>107</v>
       </c>
       <c r="I2" s="9">
         <v>45292</v>
       </c>
       <c r="K2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M2" t="s">
         <v>109</v>
       </c>
-      <c r="L2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>110</v>
-      </c>
-      <c r="N2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G3" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" t="s">
         <v>106</v>
-      </c>
-      <c r="H3" t="s">
-        <v>107</v>
       </c>
       <c r="I3" s="9">
         <v>45292</v>
       </c>
       <c r="K3" t="s">
+        <v>108</v>
+      </c>
+      <c r="L3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M3" t="s">
         <v>109</v>
       </c>
-      <c r="L3" t="s">
-        <v>104</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>110</v>
-      </c>
-      <c r="N3" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G4" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" t="s">
         <v>106</v>
-      </c>
-      <c r="H4" t="s">
-        <v>107</v>
       </c>
       <c r="I4" s="9">
         <v>45292</v>
       </c>
       <c r="K4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L4" t="s">
+        <v>103</v>
+      </c>
+      <c r="M4" t="s">
         <v>109</v>
       </c>
-      <c r="L4" t="s">
-        <v>104</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>110</v>
-      </c>
-      <c r="N4" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G5" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" t="s">
         <v>106</v>
-      </c>
-      <c r="H5" t="s">
-        <v>107</v>
       </c>
       <c r="I5" s="9">
         <v>45292</v>
       </c>
       <c r="K5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L5" t="s">
+        <v>103</v>
+      </c>
+      <c r="M5" t="s">
         <v>109</v>
       </c>
-      <c r="L5" t="s">
-        <v>104</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>110</v>
-      </c>
-      <c r="N5" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G6" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" t="s">
         <v>106</v>
-      </c>
-      <c r="H6" t="s">
-        <v>107</v>
       </c>
       <c r="I6" s="9">
         <v>45292</v>
       </c>
       <c r="K6" t="s">
+        <v>108</v>
+      </c>
+      <c r="L6" t="s">
+        <v>103</v>
+      </c>
+      <c r="M6" t="s">
         <v>109</v>
       </c>
-      <c r="L6" t="s">
-        <v>104</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>110</v>
-      </c>
-      <c r="N6" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G7" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7" t="s">
         <v>106</v>
-      </c>
-      <c r="H7" t="s">
-        <v>107</v>
       </c>
       <c r="I7" s="9">
         <v>45292</v>
       </c>
       <c r="K7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M7" t="s">
         <v>109</v>
       </c>
-      <c r="L7" t="s">
-        <v>104</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>110</v>
-      </c>
-      <c r="N7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G8" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" t="s">
         <v>106</v>
-      </c>
-      <c r="H8" t="s">
-        <v>107</v>
       </c>
       <c r="I8" s="9">
         <v>45292</v>
       </c>
       <c r="K8" t="s">
+        <v>108</v>
+      </c>
+      <c r="L8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" t="s">
         <v>109</v>
       </c>
-      <c r="L8" t="s">
-        <v>104</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>110</v>
-      </c>
-      <c r="N8" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G9" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" t="s">
         <v>106</v>
-      </c>
-      <c r="H9" t="s">
-        <v>107</v>
       </c>
       <c r="I9" s="9">
         <v>45292</v>
       </c>
       <c r="K9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" t="s">
         <v>109</v>
       </c>
-      <c r="L9" t="s">
-        <v>104</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>110</v>
-      </c>
-      <c r="N9" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E10" t="s">
         <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G10" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" t="s">
         <v>106</v>
-      </c>
-      <c r="H10" t="s">
-        <v>107</v>
       </c>
       <c r="I10" s="9">
         <v>45292</v>
       </c>
       <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" t="s">
         <v>109</v>
       </c>
-      <c r="L10" t="s">
-        <v>104</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>110</v>
-      </c>
-      <c r="N10" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E11" t="s">
         <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G11" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11" t="s">
         <v>106</v>
-      </c>
-      <c r="H11" t="s">
-        <v>107</v>
       </c>
       <c r="I11" s="9">
         <v>45292</v>
       </c>
       <c r="K11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s">
+        <v>103</v>
+      </c>
+      <c r="M11" t="s">
         <v>109</v>
       </c>
-      <c r="L11" t="s">
-        <v>104</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>110</v>
-      </c>
-      <c r="N11" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E12" t="s">
         <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G12" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" t="s">
         <v>106</v>
-      </c>
-      <c r="H12" t="s">
-        <v>107</v>
       </c>
       <c r="I12" s="9">
         <v>45292</v>
       </c>
       <c r="K12" t="s">
+        <v>108</v>
+      </c>
+      <c r="L12" t="s">
+        <v>103</v>
+      </c>
+      <c r="M12" t="s">
         <v>109</v>
       </c>
-      <c r="L12" t="s">
-        <v>104</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>110</v>
-      </c>
-      <c r="N12" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G13" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13" t="s">
         <v>106</v>
-      </c>
-      <c r="H13" t="s">
-        <v>107</v>
       </c>
       <c r="I13" s="9">
         <v>45292</v>
       </c>
       <c r="K13" t="s">
+        <v>108</v>
+      </c>
+      <c r="L13" t="s">
+        <v>103</v>
+      </c>
+      <c r="M13" t="s">
         <v>109</v>
       </c>
-      <c r="L13" t="s">
-        <v>104</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>110</v>
-      </c>
-      <c r="N13" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B14" t="s">
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G14" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" t="s">
         <v>106</v>
-      </c>
-      <c r="H14" t="s">
-        <v>107</v>
       </c>
       <c r="I14" s="9">
         <v>45292</v>
       </c>
       <c r="K14" t="s">
+        <v>108</v>
+      </c>
+      <c r="L14" t="s">
+        <v>103</v>
+      </c>
+      <c r="M14" t="s">
         <v>109</v>
       </c>
-      <c r="L14" t="s">
-        <v>104</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>110</v>
-      </c>
-      <c r="N14" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G15" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" t="s">
         <v>106</v>
-      </c>
-      <c r="H15" t="s">
-        <v>107</v>
       </c>
       <c r="I15" s="9">
         <v>45292</v>
       </c>
       <c r="K15" t="s">
+        <v>108</v>
+      </c>
+      <c r="L15" t="s">
+        <v>103</v>
+      </c>
+      <c r="M15" t="s">
         <v>109</v>
       </c>
-      <c r="L15" t="s">
-        <v>104</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>110</v>
-      </c>
-      <c r="N15" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
         <v>121</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="F16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G16" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" t="s">
         <v>106</v>
-      </c>
-      <c r="H16" t="s">
-        <v>107</v>
       </c>
       <c r="I16" s="9">
         <v>45292</v>
       </c>
       <c r="K16" t="s">
+        <v>108</v>
+      </c>
+      <c r="L16" t="s">
+        <v>103</v>
+      </c>
+      <c r="M16" t="s">
         <v>109</v>
       </c>
-      <c r="L16" t="s">
-        <v>104</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>110</v>
-      </c>
-      <c r="N16" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D17" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G17" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" t="s">
         <v>106</v>
-      </c>
-      <c r="H17" t="s">
-        <v>107</v>
       </c>
       <c r="I17" s="9">
         <v>45292</v>
       </c>
       <c r="K17" t="s">
+        <v>108</v>
+      </c>
+      <c r="L17" t="s">
+        <v>103</v>
+      </c>
+      <c r="M17" t="s">
         <v>109</v>
       </c>
-      <c r="L17" t="s">
-        <v>104</v>
-      </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>110</v>
-      </c>
-      <c r="N17" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G18" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H18" t="s">
         <v>106</v>
-      </c>
-      <c r="H18" t="s">
-        <v>107</v>
       </c>
       <c r="I18" s="9">
         <v>45292</v>
       </c>
       <c r="K18" t="s">
+        <v>108</v>
+      </c>
+      <c r="L18" t="s">
+        <v>103</v>
+      </c>
+      <c r="M18" t="s">
         <v>109</v>
       </c>
-      <c r="L18" t="s">
-        <v>104</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>110</v>
-      </c>
-      <c r="N18" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D19" t="s">
         <v>123</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G19" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" t="s">
         <v>106</v>
-      </c>
-      <c r="H19" t="s">
-        <v>107</v>
       </c>
       <c r="I19" s="9">
         <v>45292</v>
       </c>
       <c r="K19" t="s">
+        <v>108</v>
+      </c>
+      <c r="L19" t="s">
+        <v>103</v>
+      </c>
+      <c r="M19" t="s">
         <v>109</v>
       </c>
-      <c r="L19" t="s">
-        <v>104</v>
-      </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>110</v>
-      </c>
-      <c r="N19" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G20" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H20" t="s">
         <v>106</v>
-      </c>
-      <c r="H20" t="s">
-        <v>107</v>
       </c>
       <c r="I20" s="9">
         <v>45292</v>
       </c>
       <c r="K20" t="s">
+        <v>108</v>
+      </c>
+      <c r="L20" t="s">
+        <v>103</v>
+      </c>
+      <c r="M20" t="s">
         <v>109</v>
       </c>
-      <c r="L20" t="s">
-        <v>104</v>
-      </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>110</v>
-      </c>
-      <c r="N20" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G21" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H21" t="s">
         <v>106</v>
-      </c>
-      <c r="H21" t="s">
-        <v>107</v>
       </c>
       <c r="I21" s="9">
         <v>45292</v>
       </c>
       <c r="K21" t="s">
+        <v>108</v>
+      </c>
+      <c r="L21" t="s">
+        <v>103</v>
+      </c>
+      <c r="M21" t="s">
         <v>109</v>
       </c>
-      <c r="L21" t="s">
-        <v>104</v>
-      </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>110</v>
-      </c>
-      <c r="N21" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G22" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H22" t="s">
         <v>106</v>
-      </c>
-      <c r="H22" t="s">
-        <v>107</v>
       </c>
       <c r="I22" s="9">
         <v>45292</v>
       </c>
       <c r="K22" t="s">
+        <v>108</v>
+      </c>
+      <c r="L22" t="s">
+        <v>103</v>
+      </c>
+      <c r="M22" t="s">
         <v>109</v>
       </c>
-      <c r="L22" t="s">
-        <v>104</v>
-      </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>110</v>
-      </c>
-      <c r="N22" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G23" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H23" t="s">
         <v>106</v>
-      </c>
-      <c r="H23" t="s">
-        <v>107</v>
       </c>
       <c r="I23" s="9">
         <v>45292</v>
       </c>
       <c r="K23" t="s">
+        <v>108</v>
+      </c>
+      <c r="L23" t="s">
+        <v>103</v>
+      </c>
+      <c r="M23" t="s">
         <v>109</v>
       </c>
-      <c r="L23" t="s">
-        <v>104</v>
-      </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>110</v>
-      </c>
-      <c r="N23" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E24" t="s">
         <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G24" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24" t="s">
         <v>106</v>
-      </c>
-      <c r="H24" t="s">
-        <v>107</v>
       </c>
       <c r="I24" s="9">
         <v>45292</v>
       </c>
       <c r="K24" t="s">
+        <v>108</v>
+      </c>
+      <c r="L24" t="s">
+        <v>103</v>
+      </c>
+      <c r="M24" t="s">
         <v>109</v>
       </c>
-      <c r="L24" t="s">
-        <v>104</v>
-      </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>110</v>
-      </c>
-      <c r="N24" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E25" t="s">
         <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G25" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H25" t="s">
         <v>106</v>
-      </c>
-      <c r="H25" t="s">
-        <v>107</v>
       </c>
       <c r="I25" s="9">
         <v>45292</v>
       </c>
       <c r="K25" t="s">
+        <v>108</v>
+      </c>
+      <c r="L25" t="s">
+        <v>103</v>
+      </c>
+      <c r="M25" t="s">
         <v>109</v>
       </c>
-      <c r="L25" t="s">
-        <v>104</v>
-      </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>110</v>
-      </c>
-      <c r="N25" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D26" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="F26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G26" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H26" t="s">
         <v>106</v>
-      </c>
-      <c r="H26" t="s">
-        <v>107</v>
       </c>
       <c r="I26" s="9">
         <v>45292</v>
       </c>
       <c r="K26" t="s">
+        <v>108</v>
+      </c>
+      <c r="L26" t="s">
+        <v>103</v>
+      </c>
+      <c r="M26" t="s">
         <v>109</v>
       </c>
-      <c r="L26" t="s">
-        <v>104</v>
-      </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>110</v>
-      </c>
-      <c r="N26" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G27" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H27" t="s">
         <v>106</v>
-      </c>
-      <c r="H27" t="s">
-        <v>107</v>
       </c>
       <c r="I27" s="9">
         <v>45292</v>
       </c>
       <c r="K27" t="s">
+        <v>108</v>
+      </c>
+      <c r="L27" t="s">
+        <v>103</v>
+      </c>
+      <c r="M27" t="s">
         <v>109</v>
       </c>
-      <c r="L27" t="s">
-        <v>104</v>
-      </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>110</v>
-      </c>
-      <c r="N27" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D28" t="s">
         <v>125</v>
       </c>
       <c r="E28" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G28" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" t="s">
         <v>106</v>
-      </c>
-      <c r="H28" t="s">
-        <v>107</v>
       </c>
       <c r="I28" s="9">
         <v>45292</v>
       </c>
       <c r="K28" t="s">
+        <v>108</v>
+      </c>
+      <c r="L28" t="s">
+        <v>103</v>
+      </c>
+      <c r="M28" t="s">
         <v>109</v>
       </c>
-      <c r="L28" t="s">
-        <v>104</v>
-      </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>110</v>
-      </c>
-      <c r="N28" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D29" t="s">
         <v>126</v>
       </c>
       <c r="E29" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="F29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G29" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H29" t="s">
         <v>106</v>
-      </c>
-      <c r="H29" t="s">
-        <v>107</v>
       </c>
       <c r="I29" s="9">
         <v>45292</v>
       </c>
       <c r="K29" t="s">
+        <v>108</v>
+      </c>
+      <c r="L29" t="s">
+        <v>103</v>
+      </c>
+      <c r="M29" t="s">
         <v>109</v>
       </c>
-      <c r="L29" t="s">
-        <v>104</v>
-      </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>110</v>
-      </c>
-      <c r="N29" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D30" t="s">
         <v>127</v>
@@ -3623,73 +3599,32 @@
         <v>78</v>
       </c>
       <c r="F30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G30" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H30" t="s">
         <v>106</v>
-      </c>
-      <c r="H30" t="s">
-        <v>107</v>
       </c>
       <c r="I30" s="9">
         <v>45292</v>
       </c>
       <c r="K30" t="s">
+        <v>108</v>
+      </c>
+      <c r="L30" t="s">
+        <v>103</v>
+      </c>
+      <c r="M30" t="s">
         <v>109</v>
       </c>
-      <c r="L30" t="s">
-        <v>104</v>
-      </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>110</v>
       </c>
-      <c r="N30" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>161</v>
-      </c>
-      <c r="B31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31" t="s">
-        <v>128</v>
-      </c>
-      <c r="E31" t="s">
-        <v>79</v>
-      </c>
-      <c r="F31" t="s">
-        <v>95</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="H31" t="s">
-        <v>107</v>
-      </c>
-      <c r="I31" s="9">
-        <v>45292</v>
-      </c>
-      <c r="K31" t="s">
-        <v>109</v>
-      </c>
-      <c r="L31" t="s">
-        <v>104</v>
-      </c>
-      <c r="M31" t="s">
-        <v>110</v>
-      </c>
-      <c r="N31" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G32" s="11"/>
+      <c r="G31" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3707,20 +3642,53 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9e444dda-df07-4069-8b25-4dfb1c3da75a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="72d9be16-af35-44ba-8991-a3db737bf75a" xsi:nil="true"/>
-    <Notes0 xmlns="9e444dda-df07-4069-8b25-4dfb1c3da75a" xsi:nil="true"/>
-    <_dlc_DocId xmlns="72d9be16-af35-44ba-8991-a3db737bf75a">63P7TJYCZHM3-28990658-16955</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="72d9be16-af35-44ba-8991-a3db737bf75a">
-      <Url>https://csiroau.sharepoint.com/sites/CSIRO-LEAP/_layouts/15/DocIdRedir.aspx?ID=63P7TJYCZHM3-28990658-16955</Url>
-      <Description>63P7TJYCZHM3-28990658-16955</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4000,53 +3968,20 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9e444dda-df07-4069-8b25-4dfb1c3da75a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="72d9be16-af35-44ba-8991-a3db737bf75a" xsi:nil="true"/>
+    <Notes0 xmlns="9e444dda-df07-4069-8b25-4dfb1c3da75a" xsi:nil="true"/>
+    <_dlc_DocId xmlns="72d9be16-af35-44ba-8991-a3db737bf75a">63P7TJYCZHM3-28990658-16955</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="72d9be16-af35-44ba-8991-a3db737bf75a">
+      <Url>https://csiroau.sharepoint.com/sites/CSIRO-LEAP/_layouts/15/DocIdRedir.aspx?ID=63P7TJYCZHM3-28990658-16955</Url>
+      <Description>63P7TJYCZHM3-28990658-16955</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4058,12 +3993,9 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D487604F-0564-4158-A24A-3D7190C5619F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39241E02-8637-4EBB-8C9C-3CF779AD8349}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9e444dda-df07-4069-8b25-4dfb1c3da75a"/>
-    <ds:schemaRef ds:uri="72d9be16-af35-44ba-8991-a3db737bf75a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4088,9 +4020,12 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39241E02-8637-4EBB-8C9C-3CF779AD8349}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D487604F-0564-4158-A24A-3D7190C5619F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9e444dda-df07-4069-8b25-4dfb1c3da75a"/>
+    <ds:schemaRef ds:uri="72d9be16-af35-44ba-8991-a3db737bf75a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>